--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N2">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O2">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P2">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q2">
-        <v>9169.974523133402</v>
+        <v>88.68447766896902</v>
       </c>
       <c r="R2">
-        <v>82529.77070820061</v>
+        <v>798.1602990207211</v>
       </c>
       <c r="S2">
-        <v>0.2057438737973087</v>
+        <v>0.006755702940760345</v>
       </c>
       <c r="T2">
-        <v>0.2057438737973087</v>
+        <v>0.006755702940760345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q3">
-        <v>13419.25173776674</v>
+        <v>244.565607737949</v>
       </c>
       <c r="R3">
-        <v>120773.2656399007</v>
+        <v>2201.090469641541</v>
       </c>
       <c r="S3">
-        <v>0.3010835885120844</v>
+        <v>0.01863023427359281</v>
       </c>
       <c r="T3">
-        <v>0.3010835885120845</v>
+        <v>0.01863023427359282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N4">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O4">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P4">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q4">
-        <v>3802.192654416501</v>
+        <v>73.17916563146234</v>
       </c>
       <c r="R4">
-        <v>34219.73388974851</v>
+        <v>658.612490683161</v>
       </c>
       <c r="S4">
-        <v>0.08530861712536322</v>
+        <v>0.005574557323370723</v>
       </c>
       <c r="T4">
-        <v>0.08530861712536322</v>
+        <v>0.005574557323370722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N5">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O5">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P5">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q5">
-        <v>3231.206321347571</v>
+        <v>1714.656338897502</v>
       </c>
       <c r="R5">
-        <v>29080.85689212814</v>
+        <v>15431.90705007752</v>
       </c>
       <c r="S5">
-        <v>0.07249757389350267</v>
+        <v>0.1306170952973476</v>
       </c>
       <c r="T5">
-        <v>0.07249757389350267</v>
+        <v>0.1306170952973476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q6">
-        <v>4728.515977164343</v>
+        <v>4728.515977164342</v>
       </c>
       <c r="R6">
-        <v>42556.64379447909</v>
+        <v>42556.64379447908</v>
       </c>
       <c r="S6">
-        <v>0.106092246167095</v>
+        <v>0.3602033876954195</v>
       </c>
       <c r="T6">
-        <v>0.106092246167095</v>
+        <v>0.3602033876954195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N7">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O7">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P7">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q7">
-        <v>1339.771327492615</v>
+        <v>1414.871277627449</v>
       </c>
       <c r="R7">
-        <v>12057.94194743354</v>
+        <v>12733.84149864704</v>
       </c>
       <c r="S7">
-        <v>0.03006003367026839</v>
+        <v>0.1077804177495836</v>
       </c>
       <c r="T7">
-        <v>0.03006003367026838</v>
+        <v>0.1077804177495836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N8">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O8">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P8">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q8">
-        <v>3085.081252378441</v>
+        <v>1061.099141293737</v>
       </c>
       <c r="R8">
-        <v>27765.73127140597</v>
+        <v>9549.892271643635</v>
       </c>
       <c r="S8">
-        <v>0.06921901104986952</v>
+        <v>0.08083117562054097</v>
       </c>
       <c r="T8">
-        <v>0.06921901104986952</v>
+        <v>0.08083117562054096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q9">
-        <v>4514.677969136242</v>
+        <v>2926.198171109278</v>
       </c>
       <c r="R9">
-        <v>40632.10172222617</v>
+        <v>26335.7835399835</v>
       </c>
       <c r="S9">
-        <v>0.1012944291147344</v>
+        <v>0.222908519161607</v>
       </c>
       <c r="T9">
-        <v>0.1012944291147344</v>
+        <v>0.222908519161607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N10">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O10">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P10">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q10">
-        <v>1279.182755249703</v>
+        <v>875.5799419824172</v>
       </c>
       <c r="R10">
-        <v>11512.64479724733</v>
+        <v>7880.219477841754</v>
       </c>
       <c r="S10">
-        <v>0.02870062666977377</v>
+        <v>0.06669890993777731</v>
       </c>
       <c r="T10">
-        <v>0.02870062666977377</v>
+        <v>0.0666989099377773</v>
       </c>
     </row>
   </sheetData>
